--- a/biology/Zoologie/Chaire_royale_de_zoologie_de_l'université_de_Glasgow/Chaire_royale_de_zoologie_de_l'université_de_Glasgow.xlsx
+++ b/biology/Zoologie/Chaire_royale_de_zoologie_de_l'université_de_Glasgow/Chaire_royale_de_zoologie_de_l'université_de_Glasgow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chaire_royale_de_zoologie_de_l%27universit%C3%A9_de_Glasgow</t>
+          <t>Chaire_royale_de_zoologie_de_l'université_de_Glasgow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chaire royale de zoologie de l'université de Glasgow a été fondée en 1807 par le roi George III (1738-1820) sous le titre de chaire royale d’histoire naturelle. Elle sera scindée en deux en 1903 : l’une sera la chaire royale de géologie, l’autre celle zoologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chaire_royale_de_zoologie_de_l%27universit%C3%A9_de_Glasgow</t>
+          <t>Chaire_royale_de_zoologie_de_l'université_de_Glasgow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Détenteurs de la chaire royale de zoologie de Glasgow</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1807 : Lockhart Muirhead (1765-1829[1])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1807 : Lockhart Muirhead (1765-1829)
 1829 : William Couper
 1857 : Henry Darwin Rogers (1808-1866)
 1866 : John Young
@@ -522,7 +536,7 @@
 1944 : Maurice Yonge (1899-1986)
 1965 : David Newth
 1984 : Keith Vickerman
-2013 : Pat Monaghan[2]</t>
+2013 : Pat Monaghan</t>
         </is>
       </c>
     </row>
